--- a/Entrega 4/Pruebas/CREAR_EXAMEN.xlsx
+++ b/Entrega 4/Pruebas/CREAR_EXAMEN.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raziel\Desktop\Avance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D274FD2D-C760-4741-A63F-A1D3CF404ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0C9B42-E07C-4328-831C-708CD049BD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3324455A-F177-44E0-B2E9-D51BDC86F7B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3324455A-F177-44E0-B2E9-D51BDC86F7B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,35 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>Escenario</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Salir de interfaz</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -98,9 +76,6 @@
     <t>Si el administador trata de insertar una combinacion de números con letras en el campo 'Numero de preguntas de examen', entonces el sistema indica que el input es inválido y muestra un mensaje indicando que sólo se pueden insertar numeros</t>
   </si>
   <si>
-    <t>El adminsitrador puede salir en cualquier momento de la interfaz 'Crear examen' sin guardar los datos de creación de examen. Se termina el caso de uso</t>
-  </si>
-  <si>
     <t>Nombre de examen vacio</t>
   </si>
   <si>
@@ -108,6 +83,60 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Casos de Prueba</t>
+  </si>
+  <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Numero de preguntas</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Nombre del examen</t>
+  </si>
+  <si>
+    <t>Examen se crea con éxito</t>
+  </si>
+  <si>
+    <t>El examen se crea en el sistema</t>
+  </si>
+  <si>
+    <t>Error:  el campo es obligatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El examen se crea </t>
+  </si>
+  <si>
+    <t>Casos de pruebas (datos)</t>
+  </si>
+  <si>
+    <t>Error:  sólo se pueden insertar numeros</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>25?</t>
+  </si>
+  <si>
+    <t>Veinte</t>
+  </si>
+  <si>
+    <t>¿?</t>
+  </si>
+  <si>
+    <t>Examen2020</t>
   </si>
 </sst>
 </file>
@@ -461,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C049C7-B900-4ED9-A31D-943CB8F45F0C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,95 +504,446 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B72665-9DA1-47ED-829C-5AFEC9E14897}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CF3D17-E0E9-4F8D-A10E-F73EC894630D}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="243.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
